--- a/doc/sample.xlsx
+++ b/doc/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김용수\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3908B8-0BB9-47F5-887D-812910869D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C40D3-0382-4AE5-9E52-3C396DFFB171}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8C82377-894E-4E6C-B6A1-FBB70D936636}"/>
+    <workbookView xWindow="9480" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F8C82377-894E-4E6C-B6A1-FBB70D936636}"/>
   </bookViews>
   <sheets>
     <sheet name="CS처리 상세내역" sheetId="2" r:id="rId1"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF8D231-574B-4B40-8807-9008F8215E72}">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,77 +544,95 @@
     <col min="7" max="7" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
         <v>43602</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>43602</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>43602</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>43602</v>
+        <v>43605</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -629,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -641,7 +659,7 @@
         <v>43605</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
@@ -662,13 +680,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -677,34 +695,34 @@
         <v>43605</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>43605</v>
+      <c r="B10" s="2">
+        <v>43619</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -719,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -734,13 +752,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -752,13 +770,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
         <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -773,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -785,16 +803,16 @@
         <v>43619</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -803,16 +821,16 @@
         <v>43619</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -824,10 +842,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -842,33 +860,15 @@
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>43619</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
